--- a/source-data/recetas_updated.xlsx
+++ b/source-data/recetas_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarahetew\Documents\recetas\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E806BF50-B36D-46CD-9E14-05642ED65C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BFEB6AE-6CA9-4DA8-824A-5FCC758D2F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,6 +359,9 @@
 </t>
   </si>
   <si>
+    <t>pollo asado  al nido</t>
+  </si>
+  <si>
     <t>roast chicken</t>
   </si>
   <si>
@@ -995,8 +998,14 @@
     <t>macarrones; queso; salsa blanca; salchica</t>
   </si>
   <si>
+    <t>macaroni; cheese; bechamel; sausages</t>
+  </si>
+  <si>
     <t>1/2 libra de macarrones; 
 1/2 libra de queso americano rallado; 2 tazas de salsa blanca; 2 latas de salchichas estilo Viena.</t>
+  </si>
+  <si>
+    <t>1/2 pound macaroni; 1/2 pounds of grated American cheese; 2 cups bechamel; 2 cans of Vienna sausages</t>
   </si>
   <si>
     <t>Cocine los macarrones en bastante agua de sal, hasta que estén blandos.; Retire del fuego, escúrralos y écheles agua calienté nuevamente.; Vuelva a escurrir.; Haga una salsa blanca con la receta que le ofrecemos más abajo, y añádale el queso rallado.; Corte en rueditas varias salchichas, dejando 6 enteras para el adorno.; Combine los macarrones, la salsa y las rodajas de salchichas.; Eche esta mezcla en un molde engrasado, cuadrado o redondo, como usted prefiera, pero que sea de cristal a prueba de fuego.; Póngalo al horno, a una temperatura de 375 grados F por espacio de 20 minutos.; Sáquelo, colóquele las salchichas en el centro, como ilustra la foel centro, con unas hojitas de perejil como adorno; vuelva el molde al horno y téngalo cocinando por 10 minutos más.; Cantidad para seis personas.</t>
@@ -1180,7 +1189,7 @@
 jugo de limón</t>
   </si>
   <si>
-    <t>water, barley, sugar, lemon juice</t>
+    <t>water; barley; sugar; lemon juice</t>
   </si>
   <si>
     <t>6 vasos; 4 tazas de agua caliente; 4 cucharadas de cebada en polvo;
@@ -2055,6 +2064,22 @@
 3 claras batidas</t>
   </si>
   <si>
+    <t>1/3 cup butter; 1 1/3 cups powdered suar; 3 egg yolks beaten; 1 teaspoon vanilla; 2 cups wheat flour; 3 teaspoons baking powder; I- teaspoon of salt; 1 1/2 teaspoons cinnamon; 11/2- teaspoons of cloves; 1 1/2 teaspoons walnut Flyme; 3/4 cups milk; 1 cup raisins; 3 egg whites beaten</t>
+  </si>
+  <si>
+    <t>Ablande la mantequilla.; Añada el azúcar poco a poco y bata por un rato.; Agregue las yemas batidas y la vainilla y mezcle bien.; Cierna juntos tres veces la harina, el polvo de hornear la sal, la canela, los clavos,
+y la nuez moscada, y añada a lamantequilla alternando con la leche.; Añada las pasas y las claras.; Eche en un molde engrasado y cueza en un horno moderado.</t>
+  </si>
+  <si>
+    <t>Soften butter.; Add the sugar little by little and beat for a while; Add the whipped yolks and vanilla and mix well; Sifting together three times flour, baking powder salt, cinnamon, cloves, and nutmeg, and add to butter alternating with milk.; Add raisins and egg whites; Pour into a greased pan and cook in a moderate oven.</t>
+  </si>
+  <si>
+    <t>bizcocho de especia</t>
+  </si>
+  <si>
+    <t>spice cake</t>
+  </si>
+  <si>
     <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1958-09-09/ed-1/seq-4/</t>
   </si>
   <si>
@@ -2067,6 +2092,9 @@
 salsa inglesa;
 apio;
 sal</t>
+  </si>
+  <si>
+    <t>tomato sauce; lemon juice; Tabasco sauce; Worcestshire sauce; celery; salt</t>
   </si>
   <si>
     <t>1-2 taza de salsa de tomate
@@ -2078,6 +2106,18 @@
 1-4 cucharadita de sal</t>
   </si>
   <si>
+    <t>1/2 cups tomato sauce table or chili sauce; 3 tablespoons lemon juice; A few drops of Tabasco; 2 cueharaditás of Worcestershire sauce; 1-2 cups very chopped celery; 1/4 teaspoon salt</t>
+  </si>
+  <si>
+    <t>Se mezclan bien todos los ingredientes y se enfrian.; Se debe guardar la salsa en un fraseo de cristal.</t>
+  </si>
+  <si>
+    <t>All ingredients are well mixed and cooled.; Store the sauce in a crystal bowl.</t>
+  </si>
+  <si>
+    <t>salsa para "Cocktail" de Mariscos</t>
+  </si>
+  <si>
     <t>cocktail sauce</t>
   </si>
   <si>
@@ -2090,6 +2130,12 @@
     <t>Gaceta</t>
   </si>
   <si>
+    <t>vegetariano; mariscos</t>
+  </si>
+  <si>
+    <t>vegetarian; shellfish</t>
+  </si>
+  <si>
     <t>cebolla; mantequilla; caldo; pan; queso</t>
   </si>
   <si>
@@ -2099,6 +2145,15 @@
     <t>Seis cebollas; tres cucharadas de mantequilla; un litro de caldo; tres rebanadas de pan; media taza de queso parmesano rallado</t>
   </si>
   <si>
+    <t>Six onions; three tablespoons of butter; one liter of broth; three slices of bread; half a cup of grated Parmesan cheese</t>
+  </si>
+  <si>
+    <t>Se cortan la cebollas en rodajas  y se frien en mantequilla, hasta que queden doradas.; Se agrega el caldo y se le da un hervor.; Se tuestan las rebanadas de pan, que se colocan encima de la sopa en una cazuela, cubriendose ligeramente el todo con el queso.; por ultimo, se pone la cazuela al horno durante diez minutos, hasta derretirse el queso.</t>
+  </si>
+  <si>
+    <t>Cut the onions into slices and fry them in butter, until golden brown.; Add the broth is added and bring to a boil.; Toast the slices of bread and place on top of the soup in a casserole dish, lightly covering them with the cheese.; Finally, put the casserole in the oven for ten minutes, until cheese is melted.</t>
+  </si>
+  <si>
     <t>sopa de cebolla</t>
   </si>
   <si>
@@ -2109,70 +2164,6 @@
   </si>
   <si>
     <t>r64</t>
-  </si>
-  <si>
-    <t>huevos rellenos</t>
-  </si>
-  <si>
-    <t>https://chroniclingamerica.loc.gov/lccn/sn86002403/1927-03-01/ed-1/seq-2/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change </t>
-  </si>
-  <si>
-    <t>yema to huevo?</t>
-  </si>
-  <si>
-    <t>amarillo - platanos maduros</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>still in progress</t>
-  </si>
-  <si>
-    <t>have question</t>
-  </si>
-  <si>
-    <t>should remove</t>
-  </si>
-  <si>
-    <t>1/3 cup butter; 1 1/3 cups powdered suar; 3 egg yolks beaten; 1 teaspoon vanilla; 2 cups wheat flour; 3 teaspoons baking powder; I- teaspoon of salt; 1 1/2 teaspoons cinnamon; 11/2- teaspoons of cloves; 1 1/2 teaspoons walnut Flyme; 3/4 cups milk; 1 cup raisins; 3 egg whites beaten</t>
-  </si>
-  <si>
-    <t>Ablande la mantequilla.; Añada el azúcar poco a poco y bata por un rato.; Agregue las yemas batidas y la vainilla y mezcle bien.; Cierna juntos tres veces la harina, el polvo de hornear la sal, la canela, los clavos,
-y la nuez moscada, y añada a lamantequilla alternando con la leche.; Añada las pasas y las claras.; Eche en un molde engrasado y cueza en un horno moderado.</t>
-  </si>
-  <si>
-    <t>Soften butter.; Add the sugar little by little and beat for a while; Add the whipped yolks and vanilla and mix well; Sifting together three times flour, baking powder salt, cinnamon, cloves, and nutmeg, and add to butter alternating with milk.; Add raisins and egg whites; Pour into a greased pan and cook in a moderate oven.</t>
-  </si>
-  <si>
-    <t>bizcocho de especia</t>
-  </si>
-  <si>
-    <t>spice cake</t>
-  </si>
-  <si>
-    <t>tomato sauce; lemon juice; Tabasco sauce; Worcestshire sauce; celery; salt</t>
-  </si>
-  <si>
-    <t>1/2 cups tomato sauce table or chili sauce; 3 tablespoons lemon juice; A few drops of Tabasco; 2 cueharaditás of Worcestershire sauce; 1-2 cups very chopped celery; 1/4 teaspoon salt</t>
-  </si>
-  <si>
-    <t>Se mezclan bien todos los ingredientes y se enfrian.; Se debe guardar la salsa en un fraseo de cristal.</t>
-  </si>
-  <si>
-    <t>salsa para "Cocktail" de Mariscos</t>
-  </si>
-  <si>
-    <t>All ingredients are well mixed and cooled.; Store the sauce in a crystal bowl.</t>
-  </si>
-  <si>
-    <t>Six onions; three tablespoons of butter; one liter of broth; three slices of bread; half a cup of grated Parmesan cheese</t>
-  </si>
-  <si>
-    <t>Se cortan la cebollas en rodajas  y se frien en mantequilla, hasta que queden doradas.; Se agrega el caldo y se le da un hervor.; Se tuestan las rebanadas de pan, que se colocan encima de la sopa en una cazuela, cubriendose ligeramente el todo con el queso.; por ultimo, se pone la cazuela al horno durante diez minutos, hasta derretirse el queso.</t>
   </si>
   <si>
     <t>huevo; leche; sal; mustard; perejil; tuétano</t>
@@ -2191,22 +2182,23 @@
 níéndoloa en agua fría, después se les quita el cascarón, se lavan con agua fría, se parten por la mitad a lo largo, se les quita la yema, dejando las claras enteras.; A las yemas se les agrega 3 cucharadas soperas de leche, 5 gramos de sal molida, una cuchaiadita de mostaza, media cucharadda de perejil picado, y 100 gramos de tuétano, que se tomará del hueso del caldo.; Se mezcla todo esto perfectamente y se rellenan lo huevos de las claras y se unen, formando otra vez el huevo.</t>
   </si>
   <si>
-    <t>Cut the onions into slices and fry them in butter, until golden brown.; Add the broth is added and bring to a boil.; Toast the slices of bread and place on top of the soup in a casserole dish, lightly covering them with the cheese.; Finally, put the casserole in the oven for ten minutes, until cheese is melted.</t>
-  </si>
-  <si>
     <t>In a saucepan put a liter of water on the stove and when it starts to boil put in 9 eggs are put and leave to cook exactly 12 minutes.; After this time, remove the saucepan from the stove, remove the eggs and soak them in cold water and remove shells; Wash the eggs with cold water, split in half lengthwise and remove the yolk, leaving the egg whites whole.; To the yolks add 3 tablespoons of milk, 5 grams of fine salt, a teaspoon of mustard, half a tablespoon of chopped parsley, and 100 grams of marrow, which can be taken from the bone used in a broth.; Mix perfectly and fill the eggs, forming the egg again.</t>
   </si>
   <si>
+    <t>huevos rellenos</t>
+  </si>
+  <si>
+    <t>https://chroniclingamerica.loc.gov/lccn/sn86002403/1927-03-01/ed-1/seq-2/</t>
+  </si>
+  <si>
     <t>r65</t>
   </si>
   <si>
-    <t>pollo asado  al nido</t>
-  </si>
-  <si>
-    <t>vegetariano; mariscos</t>
-  </si>
-  <si>
-    <t>vegetarian; shellfish</t>
+    <t>huevo; sal; crémor; azúcar;
+vainilla; harina; cocoa</t>
+  </si>
+  <si>
+    <t>egg; salt; cream of tartar; sugar, vanilla, flour, cocoa</t>
   </si>
   <si>
     <t>1 1-2 taza de claras;
@@ -2218,9 +2210,6 @@
 4 cucharadas de cocoa</t>
   </si>
   <si>
-    <t>egg; salt; cream of tartar; sugar, vanilla, flour, cocoa</t>
-  </si>
-  <si>
     <t>1 1-2 cups egg whites;
 1-4 teaspoon salt;
 1 teaspoon of cream of tartar;
@@ -2245,17 +2234,7 @@
     <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-12-08/ed-1/seq-5/</t>
   </si>
   <si>
-    <t>Cooking tips: https://chroniclingamerica.loc.gov/lccn/sn82001257/1961-08-01/ed-1/seq-4/</t>
-  </si>
-  <si>
     <t>r66</t>
-  </si>
-  <si>
-    <t>huevo; sal; crémor; azúcar;
-vainilla; harina; cocoa</t>
-  </si>
-  <si>
-    <t>2 libras de batata e boniato hervido; 1-2 taza de azúcar mascabado; 2 cucharadas de mantequilla; 12 "marshmallows"</t>
   </si>
   <si>
     <t>batata; boniato; azúcar; mantequilla; marshmallows</t>
@@ -2265,6 +2244,9 @@
 </t>
   </si>
   <si>
+    <t>2 libras de batata e boniato hervido; 1-2 taza de azúcar mascabado; 2 cucharadas de mantequilla; 12 "marshmallows"</t>
+  </si>
+  <si>
     <t>2 pounds boiled sweet potato; 1-2 cup muscovado sugar; 2 tablespoons butter; 12 marshmallows</t>
   </si>
   <si>
@@ -2284,24 +2266,18 @@
   </si>
   <si>
     <t>r67</t>
+  </si>
+  <si>
+    <t>huevo; salsa blanca; mantequilla; queso</t>
+  </si>
+  <si>
+    <t>egg; bechamel; butter; cheese</t>
   </si>
   <si>
     <t>5 huevos duros; salsa blanca;
 mantequilla; queso rallado</t>
   </si>
   <si>
-    <t>huevo; salsa blanca; mantequilla; queso</t>
-  </si>
-  <si>
-    <t>macaroni; cheese; bechamel; sausages</t>
-  </si>
-  <si>
-    <t>1/2 pound macaroni; 1/2 pounds of grated American cheese; 2 cups bechamel; 2 cans of Vienna sausages</t>
-  </si>
-  <si>
-    <t>egg; bechamel; butter; cheese</t>
-  </si>
-  <si>
     <t>5 hard-boiled eggs; bechamel;
 butter; grated cheese</t>
   </si>
@@ -2322,12 +2298,6 @@
     <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1962-07-22/ed-1/seq-7</t>
   </si>
   <si>
-    <t>Recipe in interview: https://chroniclingamerica.loc.gov/lccn/sn82001257/1962-11-21/ed-1/seq-6/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooking tips: https://chroniclingamerica.loc.gov/lccn/sn82001257/1963-10-30/ed-1/seq-6/ </t>
-  </si>
-  <si>
     <t>r68</t>
   </si>
   <si>
@@ -2335,16 +2305,16 @@
   </si>
   <si>
     <t>egg; sugar; vanilla; baking powder; dulce de leche; marmalade</t>
+  </si>
+  <si>
+    <t>6 yemas de huevo; 3-4 taza de azúcar; 1-3 cucharadita de esencia de vainilla; 6 claras;
+3 cucharaditas de polvo Royal
+1 1-2 de dulce de leche o mermelada;</t>
   </si>
   <si>
     <t>6 egg yolks; 3/4 cup sugar; 1/3 teaspoon vanilla essence; 6 clear;
 3 teaspoons Royal powder
 1 1/2 of dulce de leche or jam; MERINGUE; 5 egg whites; 1 cup sugar; 1-4 teaspoon vanilla essence</t>
-  </si>
-  <si>
-    <t>6 yemas de huevo; 3-4 taza de azúcar; 1-3 cucharadita de esencia de vainilla; 6 claras;
-3 cucharaditas de polvo Royal
-1 1-2 de dulce de leche o mermelada;</t>
   </si>
   <si>
     <t xml:space="preserve">Se baten las yemas con el azúcar hasta que estén espumosas, se les añade la esencia y se deja de batir.; Se le agregan las claras batidas a nieve revolviendo suavemente con cuchara de madera.; Se tamizan juntos la harina y el Polvo Royal y se agregan a la mezcla anterior revolviendo despacio, nada más que
@@ -2354,18 +2324,30 @@
 </t>
   </si>
   <si>
+    <t>Beat the yolks with the sugar until they are foamy, add the essence and stop beating.; Add the egg whites beaten to forming peaks gently stirring with wooden spoon.; Sift together the flour and Royal Powder and add to the previous mixture stirring slowly, nothing more than to incorporate.; Pour the batter into a buttered and floured mold and cook in at moderate heat for 30 minutes; Once cooked remove from rack and allow to cool; Cut the cake into three layers, then spread amply with the dulce de lechet.; Reassemble the cake and decorated with meringue.; Garnish with figs.</t>
+  </si>
+  <si>
+    <t>bizcocho merengado</t>
+  </si>
+  <si>
+    <t>meringue cake</t>
+  </si>
+  <si>
+    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1958-02-02/ed-1/seq-5/</t>
+  </si>
+  <si>
     <t>r69</t>
   </si>
   <si>
+    <t>huevo; azúcar; vainilla</t>
+  </si>
+  <si>
+    <t>egg; sugar; vanilla</t>
+  </si>
+  <si>
     <t>5 claras de huevo; 1 taza de azúcar; 1-4 de cucharadita de esencia de vainilla</t>
   </si>
   <si>
-    <t>huevo; azúcar; vainilla</t>
-  </si>
-  <si>
-    <t>egg; sugar; vanilla</t>
-  </si>
-  <si>
     <t>5 egg whites; 1 cup sugar; 1/4 teaspoon vanilla essence</t>
   </si>
   <si>
@@ -2378,18 +2360,6 @@
     <t>merengue al fuego</t>
   </si>
   <si>
-    <t>Beat the yolks with the sugar until they are foamy, add the essence and stop beating.; Add the egg whites beaten to forming peaks gently stirring with wooden spoon.; Sift together the flour and Royal Powder and add to the previous mixture stirring slowly, nothing more than to incorporate.; Pour the batter into a buttered and floured mold and cook in at moderate heat for 30 minutes; Once cooked remove from rack and allow to cool; Cut the cake into three layers, then spread amply with the dulce de lechet.; Reassemble the cake and decorated with meringue.; Garnish with figs.</t>
-  </si>
-  <si>
-    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1958-02-02/ed-1/seq-5/</t>
-  </si>
-  <si>
-    <t>bizcocho merengado</t>
-  </si>
-  <si>
-    <t>meringue cake</t>
-  </si>
-  <si>
     <t>stovetop meringue</t>
   </si>
   <si>
@@ -2399,7 +2369,17 @@
     <t>plato</t>
   </si>
   <si>
+    <t>lomo; carne; tocino; sal; nuex moscado; huevo; pan; vino;  jamón; berenjena, caldo</t>
+  </si>
+  <si>
+    <t>pork; beef; bacon; salt; nutmeg; egg; bread; wine; eggplant, broth</t>
+  </si>
+  <si>
     <t>lomo; carne de res; carne de cerdo; tocino; sal; nuez moscada; 1 huevo crudo; migas de pan blanco; un vaso de vino Sauterne; huevo duro;  jamón legumbres; sal pimienta; un poco de caldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pork tenderloin; beef; bacon; salt; nutmeg; 1 raw egg; white bread crumbs; a glass of Sauterne wine; vegetables; pepper salt; a little broth
+</t>
   </si>
   <si>
     <t>Se escoge el lomo, se abre por la mitad a lo largo y se aplasta con mucho cuidado para que se estire la carne.; Se muelen carne de res, de cerdo, tocino, sal y nuez moscada, se le añade 1 huevo crudo, migas de pan blanco y un vaso de vino Sauterne.; Se coloca esta mezcla sobre el lomo, se agrega al relleno lascas de huevo duro y jamón, se enrolla y se ata para que no se salga el relleno.; Se rodea con legumbres cortadas menudamente, se rocía con vino blanco, sal, pimienta y un poco de caldo.; Al quedar el lomo perfectamente cocido en el horno, para que tome color se pasa el jugo correspondiente y se sirve muy
@@ -2412,48 +2392,22 @@
     <t>lomo de cerdo relleno a la parisiense</t>
   </si>
   <si>
-    <t>lomo; carne; tocino; sal; nuex moscado; huevo; pan; vino;  jamón; berenjena, caldo</t>
-  </si>
-  <si>
-    <t>pork; beef; bacon; salt; nutmeg; egg; bread; wine; eggplant, broth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pork tenderloin; beef; bacon; salt; nutmeg; 1 raw egg; white bread crumbs; a glass of Sauterne wine; vegetables; pepper salt; a little broth
-</t>
-  </si>
-  <si>
     <t>Parisian stuffed pork loin</t>
   </si>
   <si>
+    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-06-01/ed-1/seq-5/</t>
+  </si>
+  <si>
     <t>r71</t>
   </si>
   <si>
+    <t>ternera; sal; pan; queso; huevo; limón; salsa de tomate</t>
+  </si>
+  <si>
+    <t>veal; salt; bread; cheese; egg; lemon; tomato sauce</t>
+  </si>
+  <si>
     <t>Se limpian las chuletas, se sazonan con sal, se pasan por migas de pan blanco, con algo de queso rallado, por huevo batido y por último por la miga de pan mezclada con la cantidad deseada de queso.; Se fríen bien doradas.; Sírvanse adornadas con limón y salsa de tomate.</t>
-  </si>
-  <si>
-    <t>chuletas de ternera a la milanesa</t>
-  </si>
-  <si>
-    <t>veal; salt; bread; cheese; egg; lemon; tomato sauce</t>
-  </si>
-  <si>
-    <t>ternera; sal; pan; queso; huevo; limón; salsa de tomate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veal chops a la Milanese
-</t>
-  </si>
-  <si>
-    <t>r72</t>
-  </si>
-  <si>
-    <t>buñuelos de papas</t>
-  </si>
-  <si>
-    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-11-03/ed-1/seq-5/</t>
-  </si>
-  <si>
-    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-05-26/ed-1/seq-5/</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2461,21 +2415,31 @@
 </t>
   </si>
   <si>
-    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-06-01/ed-1/seq-5/</t>
-  </si>
-  <si>
-    <t>1 1/2 pounds potatoes; 1 teaspoon salt; 3 tablespoons butter; 5 eggs; 1 pound butter</t>
+    <t>chuletas de ternera a la milanesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veal chops a la Milanese
+</t>
+  </si>
+  <si>
+    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-05-26/ed-1/seq-5/</t>
+  </si>
+  <si>
+    <t>r72</t>
+  </si>
+  <si>
+    <t>papas; sal; mantequilla;
+huevo; manteca</t>
+  </si>
+  <si>
+    <t>potatoes; salt; butter; eggs; lard</t>
   </si>
   <si>
     <t>1 1-2 libras de papas; 1 cucharadita de sal; 3 cucharadas de mantequilla;
 5 huevos; 1 libra de manteca</t>
   </si>
   <si>
-    <t>papas; sal; mantequilla;
-huevo; manteca</t>
-  </si>
-  <si>
-    <t>potatoes; salt; butter; eggs; lard</t>
+    <t>1 1/2 pounds potatoes; 1 teaspoon salt; 3 tablespoons butter; 5 eggs; 1 pound butter</t>
   </si>
   <si>
     <t>Hierva y maje las papas.; Añadale la mantequilla y los huevos uno a uno y bata al agregarlos.; Fría en manteca caliente por cucharadas.; Escurra y sírvalos en almíbar o espolvoree con azúcar.</t>
@@ -2484,56 +2448,62 @@
     <t>Boil and mash the potatoes.; Add the butter and eggs one by one and beat when adding.; Fry in hot lard by tablespoons.; Drain and serve in syrup or sprinkle with sugar.</t>
   </si>
   <si>
+    <t>buñuelos de papas</t>
+  </si>
+  <si>
+    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-11-03/ed-1/seq-5/</t>
+  </si>
+  <si>
     <t>r73</t>
   </si>
   <si>
+    <t>acompañamiento; plato</t>
+  </si>
+  <si>
+    <t>side; main</t>
+  </si>
+  <si>
+    <t>leche condensada; agua; huevo; harina; canela; vainilla</t>
+  </si>
+  <si>
+    <t>condensed milk; water; egg; flour; cinnamon; vanilla</t>
+  </si>
+  <si>
+    <t>1-2 lata de Leche Condensada; 1 taza de agua; 3 huevos; 1-2 cucharada de harina; 1-4 cucharadita de canela en polvo; 1-4 cucharadita esencia de vainilla</t>
+  </si>
+  <si>
+    <t>1/2 can of condensed milk; 1 cup water; 3 eggs; 1/2 tablespoons flour; /-4 teaspoon cinnamon powder; 1-4 teaspoon vanilla essence</t>
+  </si>
+  <si>
+    <t>Se diluye la leche condensada en el agua, se agrega la harina y se perfuma, colocándola al fuego hasta que espese.; A la leche caliente se añaden, por cucharadas, las claras ya consistentes, previo su batido, bañándolas bien para que se cuezan las claras. Sacarlas luego con la espumadera y colocarlas en una fuente.; Las yemas ligeramente batidas se agregan a la leche caliente, se le da a ésta una ligera cocción y se vacia todo sobre las claras.</t>
+  </si>
+  <si>
+    <t>Dilute the condensed milk with the water, add the flour and heat on the stove until it thickens.; Add the egg whites to the hot milk by tablespoons; To the hot milk are added, by tablespoons, the already beatened egg whites, making sure to cover them so that the whites are cooked.; Then remove them with the skimmer and place them in a dish; Add the lightly beaten yolks to the hot milk and cook lightly then pour evertying over the egg whites.</t>
+  </si>
+  <si>
+    <t>huevos a la nieve</t>
+  </si>
+  <si>
+    <t>eggs in the snow</t>
+  </si>
+  <si>
     <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-10-20/ed-1/seq-5/</t>
   </si>
   <si>
-    <t>acompañamiento; plato</t>
-  </si>
-  <si>
-    <t>side; main</t>
-  </si>
-  <si>
-    <t>1-2 lata de Leche Condensada; 1 taza de agua; 3 huevos; 1-2 cucharada de harina; 1-4 cucharadita de canela en polvo; 1-4 cucharadita esencia de vainilla</t>
-  </si>
-  <si>
-    <t>leche condensada; agua; huevo; harina; canela; vainilla</t>
-  </si>
-  <si>
-    <t>condensed milk; water; egg; flour; cinnamon; vanilla</t>
-  </si>
-  <si>
-    <t>1/2 can of condensed milk; 1 cup water; 3 eggs; 1/2 tablespoons flour; /-4 teaspoon cinnamon powder; 1-4 teaspoon vanilla essence</t>
-  </si>
-  <si>
-    <t>Se diluye la leche condensada en el agua, se agrega la harina y se perfuma, colocándola al fuego hasta que espese.; A la leche caliente se añaden, por cucharadas, las claras ya consistentes, previo su batido, bañándolas bien para que se cuezan las claras. Sacarlas luego con la espumadera y colocarlas en una fuente.; Las yemas ligeramente batidas se agregan a la leche caliente, se le da a ésta una ligera cocción y se vacia todo sobre las claras.</t>
-  </si>
-  <si>
-    <t>Dilute the condensed milk with the water, add the flour and heat on the stove until it thickens.; Add the egg whites to the hot milk by tablespoons; To the hot milk are added, by tablespoons, the already beatened egg whites, making sure to cover them so that the whites are cooked.; Then remove them with the skimmer and place them in a dish; Add the lightly beaten yolks to the hot milk and cook lightly then pour evertying over the egg whites.</t>
-  </si>
-  <si>
-    <t>huevos a la nieve</t>
-  </si>
-  <si>
-    <t>eggs in the snow</t>
-  </si>
-  <si>
     <t>r74</t>
+  </si>
+  <si>
+    <t>chocolate; azúcar; mantequilla; sirop de maíz; sal; leche; vainilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate; sugar; butter; corn syrup; salt; milk; vanilla
+</t>
   </si>
   <si>
     <t>2 onzas de chocolate; 2 tazas de azúcar; 2 cucharadas de mantequilla; 2 cucharaditas de sirop de maíz; Un cuarto de cucharadita de sal; 1 y un cuarto taza de leche;
 1 cucharadita de vainilla</t>
   </si>
   <si>
-    <t>chocolate; azúcar; mantequilla; sirop de maíz; sal; leche; vainilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chocolate; sugar; butter; corn syrup; salt; milk; vanilla
-</t>
-  </si>
-  <si>
     <t>2 ounces of chocolate; 2 cups sugar; 2 tablespoons butter; 2 teaspoons corn sirup; A quarter teaspoon of salt; 1 and a quarter cup of milk;
 1 teaspoon vanilla</t>
   </si>
@@ -2553,14 +2523,17 @@
     <t>r75</t>
   </si>
   <si>
+    <t>huevo; azúcar; harina; sal; pimienta; atún; mayonesa; jamón; lechuga; pimientos morrones; perejil</t>
+  </si>
+  <si>
+    <t>egg; sugar; flour; salt; pepper; tuna; mayonnaise; ham; lettuce; bell peppers; parsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 huevos; 2 cucharadas de azúcar; 200 gramos de harina; sal; pimienta; 5 huevos; una lata de atún; mayonesa; 150 gramos de jamón picado y cocido; lechuga picada; 3 pimientos morrones; huevo picado; perejil picado</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6 eggs; 2 tablespoons sugar; 200 grams of flour; salt; pepper; 5 eggs; a can of tuna; mayonnaise; 150 grams of chopped and cooked ham; chopped lettuce; 3 bell peppers; chopped egg; chopped parsley
 </t>
-  </si>
-  <si>
-    <t>huevo; azúcar; harina; sal; pimienta; atún; mayonesa; jamón; lechuga; pimientos morrones; perejil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 huevos; 2 cucharadas de azúcar; 200 gramos de harina; sal; pimienta; 5 huevos; una lata de atún; mayonesa; 150 gramos de jamón picado y cocido; lechuga picada; 3 pimientos morrones; huevo picado; perejil picado</t>
   </si>
   <si>
     <t>Batir 6 huevos y 2 cucharadas de azúcar, entibiar al baño de maría, retirar y batir hasta espesaí.; Agregar despacio 200 gramos de harina, revolviendo sal y pimienta.; Cicolar en molde enmantecado y en harinado, 50 minutos en horno moderado, y desmoldar.; Preparar mayonesa de 5 huevos.; Abrir una lata de atún y mezclar con un poco de mayonesa.; Corrtar el biscochuelo ya frío en 4 capas.; En la primera
@@ -2568,20 +2541,47 @@
 huevo.; Rodear con un colchoneito de lechuga rizadita.</t>
   </si>
   <si>
-    <t>egg; sugar; flour; salt; pepper; tuna; mayonnaise; ham; lettuce; bell peppers; parsley</t>
-  </si>
-  <si>
-    <t>torta fiambre de atun en aceite</t>
-  </si>
-  <si>
-    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-09-26/ed-1/seq-5</t>
-  </si>
-  <si>
     <t>Beat 6 eggs and 2 tablespoons of sugar, warm in a bain-marie, remove and beat until thickened.; Slowly add 200 grams of flour, stirring salt and pepper; Pour into greased and flouered pan; Bake 50 minutes in moderate oven and remove from mold.; Prepare mayonnaise from 5 eggs.; Open a can of tuna and mix with a little mayonnaise.; Cut the now cold biscuit into 4 layers.; In the first put mayonnaise and 150 grams of cooked, chopped ham.; in the second chopped lettuce and 3 bell peppers.;  and in the third put the tuna with mayonnaise,.; Cover with the fourth layer.; Cover everything with mayonnaise, scatter chopped egg and decorate the top with chopped parsley, chopped bell peppers and
 egg.; Serve on a bed of lettuce.</t>
   </si>
   <si>
+    <t>torta fiambre de atun en aceite</t>
+  </si>
+  <si>
     <t>Canned tuna cold cut cake</t>
+  </si>
+  <si>
+    <t>https://chroniclingamerica.loc.gov/lccn/sn82001257/1957-09-26/ed-1/seq-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change </t>
+  </si>
+  <si>
+    <t>yema to huevo?</t>
+  </si>
+  <si>
+    <t>amarillo - platanos maduros</t>
+  </si>
+  <si>
+    <t>Cooking tips: https://chroniclingamerica.loc.gov/lccn/sn82001257/1961-08-01/ed-1/seq-4/</t>
+  </si>
+  <si>
+    <t>Recipe in interview: https://chroniclingamerica.loc.gov/lccn/sn82001257/1962-11-21/ed-1/seq-6/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking tips: https://chroniclingamerica.loc.gov/lccn/sn82001257/1963-10-30/ed-1/seq-6/ </t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>still in progress</t>
+  </si>
+  <si>
+    <t>have question</t>
+  </si>
+  <si>
+    <t>should remove</t>
   </si>
 </sst>
 </file>
@@ -3216,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,19 +3522,19 @@
         <v>74</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>632</v>
+        <v>75</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:19" s="26" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>17</v>
@@ -3551,39 +3551,39 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="21" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>17</v>
@@ -3592,10 +3592,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>21</v>
@@ -3604,37 +3604,37 @@
         <v>22</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:19" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>17</v>
@@ -3643,45 +3643,45 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:19" s="15" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>17</v>
@@ -3690,49 +3690,49 @@
         <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:19" s="15" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>17</v>
@@ -3741,49 +3741,49 @@
         <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:19" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>17</v>
@@ -3792,10 +3792,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>21</v>
@@ -3804,37 +3804,37 @@
         <v>22</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:19" s="21" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>17</v>
@@ -3843,10 +3843,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>21</v>
@@ -3855,37 +3855,37 @@
         <v>22</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:19" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>17</v>
@@ -3902,37 +3902,37 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:19" s="15" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>17</v>
@@ -3941,45 +3941,45 @@
         <v>18</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:19" s="26" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>17</v>
@@ -3994,43 +3994,43 @@
         <v>48</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:17" s="15" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>17</v>
@@ -4047,37 +4047,37 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17" s="21" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>17</v>
@@ -4092,43 +4092,43 @@
         <v>48</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:17" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>17</v>
@@ -4145,37 +4145,37 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="1:17" s="26" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>17</v>
@@ -4196,37 +4196,37 @@
         <v>22</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" s="30" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>17</v>
@@ -4247,37 +4247,37 @@
         <v>22</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P21" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>17</v>
@@ -4289,7 +4289,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>21</v>
@@ -4298,37 +4298,37 @@
         <v>22</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="1:17" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>17</v>
@@ -4337,10 +4337,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>21</v>
@@ -4349,37 +4349,37 @@
         <v>22</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17" s="26" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>17</v>
@@ -4400,37 +4400,37 @@
         <v>22</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17" s="26" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>17</v>
@@ -4447,37 +4447,37 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>658</v>
+        <v>273</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>659</v>
+        <v>275</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N25" s="23" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" s="25" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>17</v>
@@ -4492,43 +4492,43 @@
         <v>20</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>17</v>
@@ -4549,37 +4549,37 @@
         <v>22</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N27" s="23" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:17" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>17</v>
@@ -4596,37 +4596,37 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="34"/>
     </row>
     <row r="29" spans="1:17" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>17</v>
@@ -4635,49 +4635,49 @@
         <v>18</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O29" s="36" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:17" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>17</v>
@@ -4686,45 +4686,45 @@
         <v>18</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>17</v>
@@ -4745,37 +4745,37 @@
         <v>36</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q31" s="34"/>
     </row>
     <row r="32" spans="1:17" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>17</v>
@@ -4784,49 +4784,49 @@
         <v>18</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q32" s="34"/>
     </row>
     <row r="33" spans="1:17" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>17</v>
@@ -4835,10 +4835,10 @@
         <v>18</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>21</v>
@@ -4847,37 +4847,37 @@
         <v>22</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q33" s="34"/>
     </row>
     <row r="34" spans="1:17" s="25" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>17</v>
@@ -4886,49 +4886,49 @@
         <v>18</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q34" s="34"/>
     </row>
     <row r="35" spans="1:17" s="25" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>17</v>
@@ -4937,49 +4937,49 @@
         <v>18</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J35" s="23" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N35" s="23" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q35" s="34"/>
     </row>
     <row r="36" spans="1:17" s="25" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>17</v>
@@ -4994,43 +4994,43 @@
         <v>48</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I36" s="27" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N36" s="23" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q36" s="34"/>
     </row>
     <row r="37" spans="1:17" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>17</v>
@@ -5045,43 +5045,43 @@
         <v>48</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="N37" s="23" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q37" s="34"/>
     </row>
     <row r="38" spans="1:17" s="25" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>17</v>
@@ -5090,49 +5090,49 @@
         <v>18</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N38" s="23" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q38" s="34"/>
     </row>
     <row r="39" spans="1:17" s="25" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>17</v>
@@ -5147,43 +5147,43 @@
         <v>34</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I39" s="37" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N39" s="23" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q39" s="34"/>
     </row>
     <row r="40" spans="1:17" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>17</v>
@@ -5192,49 +5192,49 @@
         <v>18</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N40" s="23" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="O40" s="23" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q40" s="34"/>
     </row>
     <row r="41" spans="1:17" s="25" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>17</v>
@@ -5243,10 +5243,10 @@
         <v>18</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>21</v>
@@ -5255,37 +5255,37 @@
         <v>22</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q41" s="34"/>
     </row>
     <row r="42" spans="1:17" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>17</v>
@@ -5300,43 +5300,43 @@
         <v>20</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q42" s="34"/>
     </row>
     <row r="43" spans="1:17" s="25" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>17</v>
@@ -5345,49 +5345,49 @@
         <v>18</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q43" s="34"/>
     </row>
     <row r="44" spans="1:17" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>17</v>
@@ -5396,49 +5396,49 @@
         <v>18</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J44" s="23" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K44" s="23" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Q44" s="34"/>
     </row>
     <row r="45" spans="1:17" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B45" s="23" t="s">
         <v>17</v>
@@ -5447,10 +5447,10 @@
         <v>18</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>21</v>
@@ -5459,37 +5459,37 @@
         <v>22</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q45" s="34"/>
     </row>
     <row r="46" spans="1:17" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>17</v>
@@ -5498,49 +5498,49 @@
         <v>18</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N46" s="23" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Q46" s="34"/>
     </row>
     <row r="47" spans="1:17" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>17</v>
@@ -5549,10 +5549,10 @@
         <v>18</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>21</v>
@@ -5561,37 +5561,37 @@
         <v>22</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K47" s="23" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="N47" s="23" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q47" s="34"/>
     </row>
     <row r="48" spans="1:17" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>17</v>
@@ -5600,10 +5600,10 @@
         <v>18</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>35</v>
@@ -5612,37 +5612,37 @@
         <v>36</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q48" s="34"/>
     </row>
     <row r="49" spans="1:17" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>17</v>
@@ -5657,43 +5657,43 @@
         <v>48</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="N49" s="23" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="O49" s="23" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P49" s="24" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Q49" s="34"/>
     </row>
     <row r="50" spans="1:17" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>17</v>
@@ -5702,10 +5702,10 @@
         <v>18</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>21</v>
@@ -5714,37 +5714,37 @@
         <v>22</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="P50" s="24" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Q50" s="34"/>
     </row>
     <row r="51" spans="1:17" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>17</v>
@@ -5759,43 +5759,43 @@
         <v>48</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="I51" s="23" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="N51" s="23" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Q51" s="34"/>
     </row>
     <row r="52" spans="1:17" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B52" s="23" t="s">
         <v>17</v>
@@ -5804,49 +5804,49 @@
         <v>18</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J52" s="23" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N52" s="23" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="O52" s="23" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Q52" s="34"/>
     </row>
     <row r="53" spans="1:17" s="25" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>17</v>
@@ -5861,43 +5861,43 @@
         <v>20</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="N53" s="23" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="O53" s="23" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="Q53" s="34"/>
     </row>
     <row r="54" spans="1:17" s="25" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>17</v>
@@ -5914,37 +5914,37 @@
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N54" s="23" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O54" s="23" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Q54" s="34"/>
     </row>
     <row r="55" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>17</v>
@@ -5959,36 +5959,36 @@
         <v>48</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="P55" s="38" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="240" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>17</v>
@@ -6009,36 +6009,36 @@
         <v>22</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K56" s="43" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="M56" s="43" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="P56" s="38" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>17</v>
@@ -6047,145 +6047,145 @@
         <v>18</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="K57" s="43" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="M57" s="42" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="P57" s="38" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="40" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F58" s="40" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="I58" s="40" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="K58" s="43" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="L58" s="40" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="M58" s="43" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="N58" s="40" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="O58" s="40" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="P58" s="41" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="40" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="39" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H59" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="J59" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="K59" s="43" t="s">
         <v>624</v>
       </c>
-      <c r="I59" s="40" t="s">
+      <c r="L59" s="40" t="s">
         <v>625</v>
       </c>
-      <c r="J59" s="40" t="s">
+      <c r="M59" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="K59" s="43" t="s">
+      <c r="N59" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="L59" s="40" t="s">
+      <c r="O59" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="P59" s="41" t="s">
         <v>628</v>
-      </c>
-      <c r="M59" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="N59" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="O59" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="P59" s="41" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>17</v>
@@ -6206,36 +6206,36 @@
         <v>22</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="I60" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="M60" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="N60" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="O60" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="P60" s="38" t="s">
         <v>638</v>
-      </c>
-      <c r="M60" s="43" t="s">
-        <v>639</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="P60" s="38" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>17</v>
@@ -6250,42 +6250,42 @@
         <v>20</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H61" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="P61" s="38" t="s">
         <v>648</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="P61" s="38" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>17</v>
@@ -6294,48 +6294,48 @@
         <v>18</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H62" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>665</v>
-      </c>
       <c r="P62" s="38" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="45" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B63" s="45" t="s">
         <v>17</v>
@@ -6350,42 +6350,42 @@
         <v>20</v>
       </c>
       <c r="F63" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G63" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I63" s="45" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="J63" s="45" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="K63" s="45" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="L63" s="45" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="M63" s="45" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="N63" s="45" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="O63" s="45" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="P63" s="46" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B64" s="45" t="s">
         <v>17</v>
@@ -6400,42 +6400,42 @@
         <v>20</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G64" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H64" s="45" t="s">
+        <v>670</v>
+      </c>
+      <c r="I64" s="45" t="s">
+        <v>671</v>
+      </c>
+      <c r="J64" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="K64" s="45" t="s">
+        <v>673</v>
+      </c>
+      <c r="L64" s="45" t="s">
+        <v>674</v>
+      </c>
+      <c r="M64" s="45" t="s">
+        <v>675</v>
+      </c>
+      <c r="N64" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="O64" s="45" t="s">
         <v>677</v>
       </c>
-      <c r="I64" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="J64" s="45" t="s">
-        <v>676</v>
-      </c>
-      <c r="K64" s="45" t="s">
-        <v>679</v>
-      </c>
-      <c r="L64" s="45" t="s">
-        <v>680</v>
-      </c>
-      <c r="M64" s="45" t="s">
-        <v>681</v>
-      </c>
-      <c r="N64" s="45" t="s">
-        <v>682</v>
-      </c>
-      <c r="O64" s="45" t="s">
-        <v>687</v>
-      </c>
       <c r="P64" s="46" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="132" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>17</v>
@@ -6444,42 +6444,42 @@
         <v>18</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="M65" s="43" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="P65" s="38" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>17</v>
@@ -6488,42 +6488,42 @@
         <v>18</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="P66" s="38" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>17</v>
@@ -6532,48 +6532,48 @@
         <v>18</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="N67" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P67" s="38" t="s">
         <v>705</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="P67" s="38" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>17</v>
@@ -6582,10 +6582,10 @@
         <v>18</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>21</v>
@@ -6594,28 +6594,28 @@
         <v>22</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="P68" s="38" t="s">
         <v>717</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="69" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>17</v>
@@ -6638,42 +6638,42 @@
         <v>20</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="P69" s="38" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>17</v>
@@ -6682,43 +6682,43 @@
         <v>18</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="P70" s="38" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -6811,32 +6811,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>605</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>606</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>667</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>668</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -6856,22 +6856,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>608</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>609</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>610</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>611</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
